--- a/V2-messages/ADT_A01/A01_Patient_Delago.xlsx
+++ b/V2-messages/ADT_A01/A01_Patient_Delago.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\project_surabhi\HL7-v2\V2-messages\ADT_A01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\HL7-v2\V2-messages\ADT_A01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E5AA9-6842-48ED-928C-F34BF56D3AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="A01_Patient_Delago" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">A01_Patient_Delago!$A$1:$F$159</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,15 +39,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6743714A-0519-40BD-AC6C-1D4AAB9E4126}" keepAlive="1" name="Query - A01_Patient_Delago" description="Connection to the 'A01_Patient_Delago' query in the workbook." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - A01_Patient_Delago" description="Connection to the 'A01_Patient_Delago' query in the workbook." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=A01_Patient_Delago;Extended Properties=&quot;&quot;" command="SELECT * FROM [A01_Patient_Delago]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="429">
   <si>
     <t>MSH.1</t>
   </si>
@@ -740,15 +739,9 @@
     <t>PV1.7.2</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>PV1.7.3</t>
   </si>
   <si>
-    <t>Siddharth</t>
-  </si>
-  <si>
     <t>PV1.7.4</t>
   </si>
   <si>
@@ -1125,12 +1118,228 @@
   </si>
   <si>
     <t>facility.facility_code</t>
+  </si>
+  <si>
+    <t>OBX-Observation-1</t>
+  </si>
+  <si>
+    <t>OBX.1</t>
+  </si>
+  <si>
+    <t>Set Id - Obx</t>
+  </si>
+  <si>
+    <t>OBX.2</t>
+  </si>
+  <si>
+    <t>Value Type</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>OBX.3</t>
+  </si>
+  <si>
+    <t>Observation Identifier</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>OBX.4</t>
+  </si>
+  <si>
+    <t>Observation Sub-id</t>
+  </si>
+  <si>
+    <t>OBX.5</t>
+  </si>
+  <si>
+    <t>Observation Value</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus without complications</t>
+  </si>
+  <si>
+    <t>OBX.6</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>OBX.7</t>
+  </si>
+  <si>
+    <t>References Range</t>
+  </si>
+  <si>
+    <t>OBX.8</t>
+  </si>
+  <si>
+    <t>Interpretation Codes</t>
+  </si>
+  <si>
+    <t>OBX.9</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>OBX.10</t>
+  </si>
+  <si>
+    <t>Nature Of Abnormal Test</t>
+  </si>
+  <si>
+    <t>OBX.11</t>
+  </si>
+  <si>
+    <t>Observation Result Status</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>OBX-Observation-2</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>Metformin</t>
+  </si>
+  <si>
+    <t>AL1 - Patient Allergy Information</t>
+  </si>
+  <si>
+    <t>AL1.1</t>
+  </si>
+  <si>
+    <t>Set Id - Al1</t>
+  </si>
+  <si>
+    <t>AL1.2</t>
+  </si>
+  <si>
+    <t>Allergen Type Code</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>AL1.3.1</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>AL1.3.2</t>
+  </si>
+  <si>
+    <t>Penicillin</t>
+  </si>
+  <si>
+    <t>AL1.4</t>
+  </si>
+  <si>
+    <t>Allergy Severity Code</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>DG1-Diagnosis</t>
+  </si>
+  <si>
+    <t>DG1.1</t>
+  </si>
+  <si>
+    <t>Set Id - Dg1</t>
+  </si>
+  <si>
+    <t>DG1.2</t>
+  </si>
+  <si>
+    <t>Diagnosis Coding Method</t>
+  </si>
+  <si>
+    <t>DG1.3.1</t>
+  </si>
+  <si>
+    <t>DG1.3.2</t>
+  </si>
+  <si>
+    <t>Chest Pain</t>
+  </si>
+  <si>
+    <t>DG1.3.3</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>DG1.4</t>
+  </si>
+  <si>
+    <t>Diagnosis Description</t>
+  </si>
+  <si>
+    <t>DG1.5</t>
+  </si>
+  <si>
+    <t>Diagnosis Date/Time</t>
+  </si>
+  <si>
+    <t>DG1.6</t>
+  </si>
+  <si>
+    <t>Diagnosis Type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Allergen Code/Mnemonic/Description</t>
+  </si>
+  <si>
+    <t>AL1.3 </t>
+  </si>
+  <si>
+    <t>DG1.3</t>
+  </si>
+  <si>
+    <t>Diagnosis Code</t>
+  </si>
+  <si>
+    <t>form_encounter.class_code</t>
+  </si>
+  <si>
+    <t>need to map AMB -&gt;outpatient</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>users.npi</t>
+  </si>
+  <si>
+    <t>uses.lname</t>
+  </si>
+  <si>
+    <t>users.fname</t>
+  </si>
+  <si>
+    <t>users.mnae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1196,7 +1405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1339,11 +1548,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1379,6 +1632,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1658,47 +1959,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7348DB8F-F69B-40C2-853C-95EA98B4B797}">
-  <dimension ref="A1:F159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1706,7 +2007,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1717,12 +2018,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1733,12 +2034,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1749,12 +2050,12 @@
         <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1765,14 +2066,14 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1783,12 +2084,12 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1799,14 +2100,14 @@
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1817,14 +2118,14 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>20</v>
       </c>
@@ -1838,19 +2139,19 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1861,12 +2162,12 @@
         <v>25</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -1877,12 +2178,12 @@
         <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1893,12 +2194,12 @@
         <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1909,14 +2210,14 @@
         <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
@@ -1927,12 +2228,12 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
@@ -1943,14 +2244,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1958,7 +2259,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>41</v>
       </c>
@@ -1972,7 +2273,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>43</v>
       </c>
@@ -1983,16 +2284,16 @@
         <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2000,7 +2301,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2315,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>47</v>
       </c>
@@ -2028,19 +2329,19 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
@@ -2051,14 +2352,14 @@
         <v>51</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>52</v>
       </c>
@@ -2072,7 +2373,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>54</v>
       </c>
@@ -2086,7 +2387,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>56</v>
       </c>
@@ -2097,12 +2398,12 @@
         <v>11</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>59</v>
       </c>
@@ -2113,24 +2414,24 @@
         <v>61</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>49</v>
       </c>
@@ -2138,17 +2439,17 @@
         <v>50</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>52</v>
       </c>
@@ -2162,7 +2463,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>54</v>
       </c>
@@ -2174,7 +2475,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>56</v>
       </c>
@@ -2185,12 +2486,12 @@
         <v>58</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>59</v>
       </c>
@@ -2198,15 +2499,15 @@
         <v>60</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>62</v>
       </c>
@@ -2220,19 +2521,19 @@
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>64</v>
       </c>
@@ -2243,14 +2544,14 @@
         <v>66</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>67</v>
       </c>
@@ -2261,14 +2562,14 @@
         <v>69</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>70</v>
       </c>
@@ -2279,14 +2580,14 @@
         <v>72</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>73</v>
       </c>
@@ -2300,7 +2601,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>75</v>
       </c>
@@ -2311,14 +2612,14 @@
         <v>77</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>78</v>
       </c>
@@ -2332,7 +2633,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>80</v>
       </c>
@@ -2343,12 +2644,12 @@
         <v>82</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>83</v>
       </c>
@@ -2359,14 +2660,14 @@
         <v>85</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>86</v>
       </c>
@@ -2377,28 +2678,28 @@
         <v>88</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>89</v>
       </c>
@@ -2409,16 +2710,16 @@
         <v>91</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>92</v>
       </c>
@@ -2429,16 +2730,16 @@
         <v>94</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>95</v>
       </c>
@@ -2449,12 +2750,12 @@
         <v>97</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>98</v>
       </c>
@@ -2468,19 +2769,19 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>100</v>
       </c>
@@ -2491,16 +2792,16 @@
         <v>101</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>102</v>
       </c>
@@ -2511,16 +2812,16 @@
         <v>103</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>104</v>
       </c>
@@ -2531,24 +2832,24 @@
         <v>105</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>106</v>
       </c>
@@ -2559,14 +2860,14 @@
         <v>108</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F57" s="19"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>109</v>
       </c>
@@ -2580,7 +2881,7 @@
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>111</v>
       </c>
@@ -2591,14 +2892,14 @@
         <v>113</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F59" s="19"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
         <v>114</v>
       </c>
@@ -2609,14 +2910,14 @@
         <v>116</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F60" s="19"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
         <v>117</v>
       </c>
@@ -2624,17 +2925,17 @@
         <v>118</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F61" s="19"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
         <v>120</v>
       </c>
@@ -2645,14 +2946,14 @@
         <v>119</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>122</v>
       </c>
@@ -2663,12 +2964,12 @@
         <v>124</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
         <v>125</v>
       </c>
@@ -2682,7 +2983,7 @@
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>127</v>
       </c>
@@ -2696,7 +2997,7 @@
       <c r="E65" s="25"/>
       <c r="F65" s="25"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
         <v>129</v>
       </c>
@@ -2710,19 +3011,19 @@
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>312</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>131</v>
       </c>
@@ -2733,16 +3034,16 @@
         <v>132</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>133</v>
       </c>
@@ -2753,16 +3054,16 @@
         <v>134</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
         <v>135</v>
       </c>
@@ -2773,24 +3074,24 @@
         <v>136</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>313</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>315</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>137</v>
       </c>
@@ -2801,16 +3102,16 @@
         <v>91</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>138</v>
       </c>
@@ -2821,16 +3122,16 @@
         <v>139</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>140</v>
       </c>
@@ -2841,24 +3142,24 @@
         <v>141</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>142</v>
       </c>
@@ -2869,16 +3170,16 @@
         <v>143</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>144</v>
       </c>
@@ -2889,16 +3190,16 @@
         <v>145</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
         <v>146</v>
       </c>
@@ -2909,12 +3210,12 @@
         <v>147</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
         <v>148</v>
       </c>
@@ -2928,7 +3229,7 @@
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
         <v>150</v>
       </c>
@@ -2942,7 +3243,7 @@
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>152</v>
       </c>
@@ -2956,7 +3257,7 @@
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
         <v>154</v>
       </c>
@@ -2970,7 +3271,7 @@
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
         <v>156</v>
       </c>
@@ -2984,7 +3285,7 @@
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
         <v>158</v>
       </c>
@@ -2998,7 +3299,7 @@
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
         <v>160</v>
       </c>
@@ -3012,7 +3313,7 @@
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
         <v>162</v>
       </c>
@@ -3026,7 +3327,7 @@
       <c r="E86" s="25"/>
       <c r="F86" s="25"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
         <v>164</v>
       </c>
@@ -3040,7 +3341,7 @@
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
         <v>166</v>
       </c>
@@ -3054,7 +3355,7 @@
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
         <v>168</v>
       </c>
@@ -3068,7 +3369,7 @@
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
         <v>170</v>
       </c>
@@ -3082,7 +3383,7 @@
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
         <v>172</v>
       </c>
@@ -3096,7 +3397,7 @@
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
         <v>174</v>
       </c>
@@ -3110,7 +3411,7 @@
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
         <v>176</v>
       </c>
@@ -3124,7 +3425,7 @@
       <c r="E93" s="25"/>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
         <v>178</v>
       </c>
@@ -3138,7 +3439,7 @@
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
         <v>180</v>
       </c>
@@ -3152,7 +3453,7 @@
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
         <v>182</v>
       </c>
@@ -3166,7 +3467,7 @@
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
         <v>184</v>
       </c>
@@ -3180,7 +3481,7 @@
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
         <v>186</v>
       </c>
@@ -3194,7 +3495,7 @@
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
         <v>188</v>
       </c>
@@ -3208,7 +3509,7 @@
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
         <v>190</v>
       </c>
@@ -3222,19 +3523,19 @@
       <c r="E100" s="25"/>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="20" t="s">
         <v>192</v>
       </c>
@@ -3248,7 +3549,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="20" t="s">
         <v>194</v>
       </c>
@@ -3259,12 +3560,12 @@
         <v>196</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
         <v>197</v>
       </c>
@@ -3275,12 +3576,12 @@
         <v>199</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="20" t="s">
         <v>200</v>
       </c>
@@ -3294,7 +3595,7 @@
       <c r="E105" s="19"/>
       <c r="F105" s="19"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="20" t="s">
         <v>202</v>
       </c>
@@ -3308,7 +3609,7 @@
       <c r="E106" s="19"/>
       <c r="F106" s="19"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="20" t="s">
         <v>204</v>
       </c>
@@ -3320,7 +3621,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>206</v>
       </c>
@@ -3328,29 +3629,29 @@
         <v>193</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F108" s="24"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>192</v>
       </c>
@@ -3361,12 +3662,12 @@
         <v>207</v>
       </c>
       <c r="D110" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="19"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="20" t="s">
         <v>194</v>
       </c>
@@ -3377,12 +3678,12 @@
         <v>208</v>
       </c>
       <c r="D111" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="19"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>197</v>
       </c>
@@ -3393,16 +3694,16 @@
         <v>209</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F112" s="24"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3410,7 +3711,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>210</v>
       </c>
@@ -3424,19 +3725,19 @@
       <c r="E114" s="17"/>
       <c r="F114" s="17"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
         <v>212</v>
       </c>
@@ -3447,12 +3748,16 @@
         <v>213</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="F116" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="20" t="s">
         <v>214</v>
       </c>
@@ -3463,12 +3768,16 @@
         <v>215</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="20" t="s">
         <v>216</v>
       </c>
@@ -3479,12 +3788,16 @@
         <v>217</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>218</v>
       </c>
@@ -3498,7 +3811,7 @@
       <c r="E119" s="17"/>
       <c r="F119" s="17"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>220</v>
       </c>
@@ -3512,7 +3825,7 @@
       <c r="E120" s="17"/>
       <c r="F120" s="17"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>222</v>
       </c>
@@ -3526,7 +3839,7 @@
       <c r="E121" s="17"/>
       <c r="F121" s="17"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>224</v>
       </c>
@@ -3540,19 +3853,19 @@
       <c r="E122" s="17"/>
       <c r="F122" s="17"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C123" s="19"/>
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="20" t="s">
         <v>226</v>
       </c>
@@ -3563,12 +3876,14 @@
         <v>228</v>
       </c>
       <c r="D124" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E124" s="19"/>
+        <v>291</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>425</v>
+      </c>
       <c r="F124" s="19"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="20" t="s">
         <v>229</v>
       </c>
@@ -3576,33 +3891,37 @@
         <v>65</v>
       </c>
       <c r="C125" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F125" s="19"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
-        <v>231</v>
       </c>
       <c r="B126" s="21" t="s">
         <v>68</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>232</v>
+        <v>423</v>
       </c>
       <c r="D126" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E126" s="19"/>
+        <v>291</v>
+      </c>
+      <c r="E126" s="19" t="s">
+        <v>427</v>
+      </c>
       <c r="F126" s="19"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B127" s="21" t="s">
         <v>71</v>
@@ -3611,14 +3930,16 @@
         <v>82</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E127" s="19"/>
+        <v>291</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>428</v>
+      </c>
       <c r="F127" s="19"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>74</v>
@@ -3630,9 +3951,9 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>76</v>
@@ -3644,9 +3965,9 @@
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>79</v>
@@ -3658,12 +3979,12 @@
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C131" s="19" t="s">
         <v>22</v>
@@ -3672,25 +3993,25 @@
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B132" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D132" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E132" s="19"/>
       <c r="F132" s="19"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B133" s="21" t="s">
         <v>81</v>
@@ -3702,9 +4023,9 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B134" s="21" t="s">
         <v>53</v>
@@ -3716,9 +4037,9 @@
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>55</v>
@@ -3730,28 +4051,28 @@
       <c r="E135" s="19"/>
       <c r="F135" s="19"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>60</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D136" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B137" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C137" s="17" t="s">
         <v>22</v>
@@ -3760,12 +4081,12 @@
       <c r="E137" s="17"/>
       <c r="F137" s="17"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B138" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C138" s="17" t="s">
         <v>22</v>
@@ -3774,72 +4095,72 @@
       <c r="E138" s="17"/>
       <c r="F138" s="17"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D140" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D141" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D142" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C143" s="17" t="s">
         <v>22</v>
@@ -3848,12 +4169,12 @@
       <c r="E143" s="17"/>
       <c r="F143" s="17"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C144" s="17" t="s">
         <v>22</v>
@@ -3862,12 +4183,12 @@
       <c r="E144" s="17"/>
       <c r="F144" s="17"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C145" s="17" t="s">
         <v>22</v>
@@ -3876,12 +4197,12 @@
       <c r="E145" s="17"/>
       <c r="F145" s="17"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C146" s="17" t="s">
         <v>22</v>
@@ -3890,12 +4211,12 @@
       <c r="E146" s="17"/>
       <c r="F146" s="17"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C147" s="17" t="s">
         <v>22</v>
@@ -3904,12 +4225,12 @@
       <c r="E147" s="17"/>
       <c r="F147" s="17"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>22</v>
@@ -3918,12 +4239,12 @@
       <c r="E148" s="17"/>
       <c r="F148" s="17"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C149" s="17" t="s">
         <v>22</v>
@@ -3932,97 +4253,97 @@
       <c r="E149" s="17"/>
       <c r="F149" s="17"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B151" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D151" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B152" s="21" t="s">
         <v>93</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D152" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B153" s="21" t="s">
         <v>96</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D153" s="19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B155" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D155" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B156" s="21" t="s">
         <v>53</v>
@@ -4034,9 +4355,9 @@
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="20" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>55</v>
@@ -4048,9 +4369,9 @@
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B158" s="21" t="s">
         <v>57</v>
@@ -4062,21 +4383,549 @@
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B159" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C159" s="24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D159" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E159" s="24"/>
       <c r="F159" s="24"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C161" s="31">
+        <v>1</v>
+      </c>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="29"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B162" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="29"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B163" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="29"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B164" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C164" s="31">
+        <v>2</v>
+      </c>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="29"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B165" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C165" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="29"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B166" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C166" s="31"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="29"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B167" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C167" s="31"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="29"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B168" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C168" s="31"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="29"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B169" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C169" s="31"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="29"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B170" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" s="31"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="29"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B171" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="29"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B173" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" s="31">
+        <v>2</v>
+      </c>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B174" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B175" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B176" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="31">
+        <v>3</v>
+      </c>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="C178" s="31"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="C179" s="31"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="C180" s="31"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" s="31"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C182" s="31"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="B185" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C185" s="28">
+        <v>1</v>
+      </c>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
+      <c r="F185" s="17"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B186" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C186" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D186" s="18"/>
+      <c r="E186" s="18"/>
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="B187" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="C187" s="33"/>
+      <c r="D187" s="18"/>
+      <c r="E187" s="18"/>
+      <c r="F187" s="36"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="29"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B189" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="37"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="C190" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B192" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192" s="28">
+        <v>1</v>
+      </c>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
+      <c r="F192" s="17"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C193" s="33"/>
+      <c r="D193" s="18"/>
+      <c r="E193" s="18"/>
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" s="33"/>
+      <c r="D194" s="18"/>
+      <c r="E194" s="18"/>
+      <c r="F194" s="36"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B195" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" s="31">
+        <v>786.5</v>
+      </c>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="29"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C196" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="37"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B197" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C197" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="B198" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C198" s="28"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
+      <c r="F198" s="17"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="C199" s="28"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D200" s="17"/>
+      <c r="E200" s="17"/>
+      <c r="F200" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4085,14 +4934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
